--- a/sim/s1/sample_list.xlsx
+++ b/sim/s1/sample_list.xlsx
@@ -597,13 +597,13 @@
         <v>10000</v>
       </c>
       <c r="M2">
-        <v>9911</v>
+        <v>9904</v>
       </c>
       <c r="N2">
         <v>9905.245374528633</v>
       </c>
       <c r="O2">
-        <v>100.0580967482761</v>
+        <v>99.98742712086835</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -644,13 +644,13 @@
         <v>10000</v>
       </c>
       <c r="M3">
-        <v>9903</v>
+        <v>9908</v>
       </c>
       <c r="N3">
         <v>9905.245374528633</v>
       </c>
       <c r="O3">
-        <v>99.9773314598101</v>
+        <v>100.0278097651013</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -691,13 +691,13 @@
         <v>10000</v>
       </c>
       <c r="M4">
-        <v>9917</v>
+        <v>9906</v>
       </c>
       <c r="N4">
         <v>9905.245374528633</v>
       </c>
       <c r="O4">
-        <v>100.1186707146256</v>
+        <v>100.0076184429848</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -738,13 +738,13 @@
         <v>10000</v>
       </c>
       <c r="M5">
-        <v>9925</v>
+        <v>9901</v>
       </c>
       <c r="N5">
         <v>9905.245374528633</v>
       </c>
       <c r="O5">
-        <v>100.1994360030915</v>
+        <v>99.95714013769361</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -785,13 +785,13 @@
         <v>10000</v>
       </c>
       <c r="M6">
-        <v>9886</v>
+        <v>9874</v>
       </c>
       <c r="N6">
         <v>9905.245374528633</v>
       </c>
       <c r="O6">
-        <v>99.80570522181992</v>
+        <v>99.68455728912097</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -832,13 +832,13 @@
         <v>10000</v>
       </c>
       <c r="M7">
-        <v>9927</v>
+        <v>9908</v>
       </c>
       <c r="N7">
         <v>9905.245374528633</v>
       </c>
       <c r="O7">
-        <v>100.219627325208</v>
+        <v>100.0278097651013</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -879,13 +879,13 @@
         <v>10000</v>
       </c>
       <c r="M8">
-        <v>9890</v>
+        <v>9896</v>
       </c>
       <c r="N8">
         <v>9905.245374528633</v>
       </c>
       <c r="O8">
-        <v>99.84608786605291</v>
+        <v>99.90666183240238</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -926,13 +926,13 @@
         <v>10000</v>
       </c>
       <c r="M9">
-        <v>9920</v>
+        <v>9893</v>
       </c>
       <c r="N9">
         <v>9905.245374528633</v>
       </c>
       <c r="O9">
-        <v>100.1489576978003</v>
+        <v>99.87637484922764</v>
       </c>
     </row>
   </sheetData>
